--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T15:25:26+00:00</t>
+    <t>2022-05-25T17:10:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:10:47+00:00</t>
+    <t>2022-05-25T17:52:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T17:52:37+00:00</t>
+    <t>2022-05-25T18:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T18:55:20+00:00</t>
+    <t>2022-05-25T19:52:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="491">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T19:52:35+00:00</t>
+    <t>2022-05-25T20:34:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>Visit Type</t>
+    <t>Extension : Visit Type</t>
   </si>
   <si>
     <t>type of visit</t>
@@ -493,6 +493,9 @@
 </t>
   </si>
   <si>
+    <t>Extension : OID</t>
+  </si>
+  <si>
     <t>Object ID</t>
   </si>
   <si>
@@ -503,7 +506,7 @@
 </t>
   </si>
   <si>
-    <t>Display Order</t>
+    <t>Extension : Display Order</t>
   </si>
   <si>
     <t>Order of display</t>
@@ -3357,10 +3360,10 @@
         <v>152</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3443,7 +3446,7 @@
         <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
@@ -3465,13 +3468,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3554,7 +3557,7 @@
         <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
@@ -3576,13 +3579,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3662,11 +3665,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3688,16 +3691,16 @@
         <v>127</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3746,7 +3749,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3775,7 +3778,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3801,16 +3804,16 @@
         <v>96</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3859,7 +3862,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3874,13 +3877,13 @@
         <v>94</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>74</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3911,19 +3914,19 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3972,7 +3975,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3987,21 +3990,21 @@
         <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4027,13 +4030,13 @@
         <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4083,7 +4086,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4098,13 +4101,13 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>74</v>
@@ -4112,7 +4115,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4138,16 +4141,16 @@
         <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -4196,7 +4199,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4205,7 +4208,7 @@
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>94</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4251,13 +4254,13 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4307,7 +4310,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4322,10 +4325,10 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>74</v>
@@ -4336,7 +4339,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4362,10 +4365,10 @@
         <v>84</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4416,7 +4419,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4445,7 +4448,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4471,13 +4474,13 @@
         <v>102</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4503,13 +4506,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4527,7 +4530,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>82</v>
@@ -4542,13 +4545,13 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>74</v>
@@ -4556,7 +4559,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4579,19 +4582,19 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
@@ -4640,7 +4643,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4655,13 +4658,13 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>74</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4692,13 +4695,13 @@
         <v>74</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4706,7 +4709,7 @@
         <v>74</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>74</v>
@@ -4727,13 +4730,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4751,7 +4754,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4766,7 +4769,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4780,11 +4783,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4803,16 +4806,16 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4862,7 +4865,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4877,13 +4880,13 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>74</v>
@@ -4891,7 +4894,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4917,16 +4920,16 @@
         <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4975,7 +4978,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4990,13 +4993,13 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>74</v>
@@ -5004,7 +5007,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5027,16 +5030,16 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5086,7 +5089,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5101,10 +5104,10 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>74</v>
@@ -5115,7 +5118,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5138,16 +5141,16 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5197,7 +5200,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5212,10 +5215,10 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>74</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5249,19 +5252,19 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>74</v>
@@ -5310,7 +5313,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5325,10 +5328,10 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>74</v>
@@ -5339,7 +5342,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5362,16 +5365,16 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5397,13 +5400,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5421,7 +5424,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5436,10 +5439,10 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>74</v>
@@ -5450,7 +5453,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5473,16 +5476,16 @@
         <v>74</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5532,7 +5535,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5547,21 +5550,21 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5587,10 +5590,10 @@
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5641,7 +5644,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5659,7 +5662,7 @@
         <v>74</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>74</v>
@@ -5670,11 +5673,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5693,17 +5696,17 @@
         <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>74</v>
@@ -5752,7 +5755,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5767,21 +5770,21 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5804,16 +5807,16 @@
         <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5863,7 +5866,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5878,21 +5881,21 @@
         <v>94</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5915,19 +5918,19 @@
         <v>74</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
@@ -5976,7 +5979,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5991,21 +5994,21 @@
         <v>94</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6028,19 +6031,19 @@
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -6089,7 +6092,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6104,21 +6107,21 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6141,17 +6144,17 @@
         <v>74</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>74</v>
@@ -6176,13 +6179,13 @@
         <v>74</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>74</v>
@@ -6200,7 +6203,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6218,7 +6221,7 @@
         <v>74</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>74</v>
@@ -6229,7 +6232,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6252,13 +6255,13 @@
         <v>74</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6309,7 +6312,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6327,7 +6330,7 @@
         <v>74</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>74</v>
@@ -6338,7 +6341,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6361,13 +6364,13 @@
         <v>74</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6418,7 +6421,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6447,7 +6450,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6470,13 +6473,13 @@
         <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6527,7 +6530,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6545,7 +6548,7 @@
         <v>74</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>74</v>
@@ -6556,7 +6559,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6579,13 +6582,13 @@
         <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6636,7 +6639,7 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6654,7 +6657,7 @@
         <v>74</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>74</v>
@@ -6665,7 +6668,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6688,19 +6691,19 @@
         <v>74</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6749,7 +6752,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6767,7 +6770,7 @@
         <v>74</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>74</v>
@@ -6778,7 +6781,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6801,13 +6804,13 @@
         <v>74</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6858,7 +6861,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6876,7 +6879,7 @@
         <v>74</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>74</v>
@@ -6887,7 +6890,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6913,13 +6916,13 @@
         <v>102</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6945,13 +6948,13 @@
         <v>74</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>74</v>
@@ -6969,7 +6972,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -6987,7 +6990,7 @@
         <v>74</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>74</v>
@@ -6998,7 +7001,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7021,17 +7024,17 @@
         <v>74</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -7080,7 +7083,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7109,7 +7112,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7132,19 +7135,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>74</v>
@@ -7169,13 +7172,13 @@
         <v>74</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>74</v>
@@ -7193,7 +7196,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7211,7 +7214,7 @@
         <v>74</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>74</v>
@@ -7222,7 +7225,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7248,10 +7251,10 @@
         <v>102</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7278,13 +7281,13 @@
         <v>74</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>74</v>
@@ -7302,7 +7305,7 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7331,7 +7334,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7357,10 +7360,10 @@
         <v>102</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7387,13 +7390,13 @@
         <v>74</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>74</v>
@@ -7411,7 +7414,7 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7440,7 +7443,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7463,16 +7466,16 @@
         <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7522,7 +7525,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7551,7 +7554,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7574,17 +7577,17 @@
         <v>74</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>74</v>
@@ -7633,7 +7636,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7651,7 +7654,7 @@
         <v>74</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>74</v>
@@ -7662,11 +7665,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7685,19 +7688,19 @@
         <v>74</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7746,7 +7749,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7764,7 +7767,7 @@
         <v>74</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>74</v>
@@ -7775,7 +7778,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7798,13 +7801,13 @@
         <v>74</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7855,7 +7858,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -7873,7 +7876,7 @@
         <v>74</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>74</v>
@@ -7884,7 +7887,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7910,10 +7913,10 @@
         <v>84</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7964,7 +7967,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -7982,7 +7985,7 @@
         <v>74</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>74</v>
@@ -7993,11 +7996,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8019,13 +8022,13 @@
         <v>127</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8075,7 +8078,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8093,7 +8096,7 @@
         <v>74</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>74</v>
@@ -8104,11 +8107,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8130,16 +8133,16 @@
         <v>127</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8188,7 +8191,7 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8217,7 +8220,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8243,10 +8246,10 @@
         <v>102</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8273,13 +8276,13 @@
         <v>74</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>74</v>
@@ -8297,7 +8300,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>82</v>
@@ -8315,7 +8318,7 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>74</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8349,13 +8352,13 @@
         <v>74</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8382,13 +8385,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -8406,7 +8409,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8424,7 +8427,7 @@
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>74</v>
@@ -8435,7 +8438,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8458,13 +8461,13 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8491,13 +8494,13 @@
         <v>74</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>74</v>
@@ -8515,7 +8518,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8533,7 +8536,7 @@
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>74</v>
@@ -8544,11 +8547,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8567,13 +8570,13 @@
         <v>74</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8624,7 +8627,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8642,7 +8645,7 @@
         <v>74</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>74</v>
@@ -8653,7 +8656,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8676,16 +8679,16 @@
         <v>74</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8735,7 +8738,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8753,7 +8756,7 @@
         <v>74</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>74</v>
@@ -8764,7 +8767,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8787,19 +8790,19 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8824,13 +8827,13 @@
         <v>74</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>74</v>
@@ -8848,7 +8851,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -8866,7 +8869,7 @@
         <v>74</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>74</v>
@@ -8877,7 +8880,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8900,17 +8903,17 @@
         <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -8959,7 +8962,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -8988,7 +8991,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9011,17 +9014,17 @@
         <v>74</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -9070,7 +9073,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9099,7 +9102,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9122,13 +9125,13 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9179,7 +9182,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9208,7 +9211,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9231,16 +9234,16 @@
         <v>74</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9290,7 +9293,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9319,7 +9322,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9342,16 +9345,16 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9401,7 +9404,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9430,7 +9433,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9456,10 +9459,10 @@
         <v>84</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9510,7 +9513,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9528,7 +9531,7 @@
         <v>74</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>74</v>
@@ -9539,11 +9542,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9565,13 +9568,13 @@
         <v>127</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9621,7 +9624,7 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
@@ -9639,7 +9642,7 @@
         <v>74</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>74</v>
@@ -9650,11 +9653,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9676,16 +9679,16 @@
         <v>127</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>74</v>
@@ -9734,7 +9737,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9763,7 +9766,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9789,13 +9792,13 @@
         <v>84</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9845,7 +9848,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>82</v>
@@ -9874,7 +9877,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9897,16 +9900,16 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -9956,7 +9959,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>82</v>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T20:34:56+00:00</t>
+    <t>2022-06-09T20:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-09T20:33:24+00:00</t>
+    <t>2022-06-10T16:46:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T16:46:34+00:00</t>
+    <t>2022-06-10T18:20:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T18:20:06+00:00</t>
+    <t>2022-06-10T20:09:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:09:36+00:00</t>
+    <t>2022-06-10T20:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T20:31:51+00:00</t>
+    <t>2022-06-28T15:12:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Activity Definition S37</t>
+    <t>Profile: ActivityDefinitionS37</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T15:12:49+00:00</t>
+    <t>2022-07-04T18:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -437,7 +437,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Parent Reference</t>
+    <t>Extension : ActivityDefinition|PlanDefinition - Parent Reference</t>
   </si>
   <si>
     <t>extension to show reference back to a parent instance</t>
@@ -454,7 +454,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : ResourceCreateUpdateAtDateTime</t>
+    <t>Extension : ActivityDefinition|PlanDefinition|Questionnaire - ResourceCreateUpdateAtDateTime</t>
   </si>
   <si>
     <t>Captures the created at an updated at attributes of date timestamps for a questionnaire</t>
@@ -467,7 +467,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Version Number</t>
+    <t>Extension : ActivityDefinition|PlanDefinition - Version Number</t>
   </si>
   <si>
     <t>version number</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Visit Type</t>
+    <t>ActivityDefinition - Extension : Visit Type</t>
   </si>
   <si>
     <t>type of visit</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : OID</t>
+    <t>ActivityDefinition - Extension :  OID</t>
   </si>
   <si>
     <t>Object ID</t>
@@ -506,7 +506,7 @@
 </t>
   </si>
   <si>
-    <t>Extension : Display Order</t>
+    <t>ActivityDefinition - Extension :  Display Order</t>
   </si>
   <si>
     <t>Order of display</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t>Econsent From Group Id</t>
+    <t>ActivityDefinition - Extension:  Econsent From Group Id</t>
   </si>
   <si>
     <t>Id for the consent form group</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:23:06+00:00</t>
+    <t>2022-07-04T18:28:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Profile: ActivityDefinitionS37</t>
+    <t>Profile : ActivityDefinitionS37</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T18:28:37+00:00</t>
+    <t>2022-07-04T20:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -480,7 +480,7 @@
 </t>
   </si>
   <si>
-    <t>ActivityDefinition - Extension : Visit Type</t>
+    <t>Extension : ActivityDefinition - Visit Type</t>
   </si>
   <si>
     <t>type of visit</t>
@@ -493,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>ActivityDefinition - Extension :  OID</t>
+    <t>Extension : ActivityDefinition - OID</t>
   </si>
   <si>
     <t>Object ID</t>
@@ -506,7 +506,7 @@
 </t>
   </si>
   <si>
-    <t>ActivityDefinition - Extension :  Display Order</t>
+    <t>Extension : ActivityDefinition - Display Order</t>
   </si>
   <si>
     <t>Order of display</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t>ActivityDefinition - Extension:  Econsent From Group Id</t>
+    <t>Extension : ActivityDefinition - Econsent From Group Id</t>
   </si>
   <si>
     <t>Id for the consent form group</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T20:25:49+00:00</t>
+    <t>2022-07-27T15:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1849,42 +1849,42 @@
     <col min="1" max="1" width="47.60546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="24.44140625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="92.15234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="93.40234375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="93.40625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.90625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.89453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="56.32421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="133.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="56.328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="133.84765625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="48.0546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="48.05859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T15:29:27+00:00</t>
+    <t>2022-07-27T16:10:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:10:03+00:00</t>
+    <t>2022-07-27T16:26:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-activity-definition-s37.xlsx
+++ b/branches/master/StructureDefinition-activity-definition-s37.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-27T16:26:41+00:00</t>
+    <t>2022-08-01T20:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
